--- a/111305086_企管二_陳山普.xlsx
+++ b/111305086_企管二_陳山普.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twsky\OneDrive\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F83C463B-0211-40B6-B031-F781B000159B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07A7F65-1916-447C-BE11-DF43ED0EA198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>何大美</t>
   </si>
@@ -243,26 +243,6 @@
   </si>
   <si>
     <t>fail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -755,54 +735,108 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$J$25:$J$29</c:f>
+              <c:f>工作表1!$B$2:$B$15</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>何大美</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>陳慢慢</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>C</c:v>
+                  <c:v>黃阿坤</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>D</c:v>
+                  <c:v>李大仁</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>F</c:v>
+                  <c:v>陳小奇</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>羅小花</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>李小君</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>李大輝</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>白阿國</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>王小明</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>李大月</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>林大義</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>宋小倫</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>許亮亮</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$K$25:$K$29</c:f>
+              <c:f>工作表1!$J$2:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>91.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>81.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>80.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>84.699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D95B-4207-B610-F8E0F2F41731}"/>
+              <c16:uniqueId val="{00000000-3864-4A1A-BCD3-C6F4397FB470}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -816,11 +850,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1609050864"/>
-        <c:axId val="1609049200"/>
+        <c:axId val="1614305488"/>
+        <c:axId val="1614306320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1609050864"/>
+        <c:axId val="1614305488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +897,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1609049200"/>
+        <c:crossAx val="1614306320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -871,7 +905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1609049200"/>
+        <c:axId val="1614306320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,9 +956,10 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1609050864"/>
+        <c:crossAx val="1614305488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2121,22 +2156,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>236362</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>138289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>88195</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="圖表 5">
+        <xdr:cNvPr id="7" name="圖表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF50B0F-6737-4015-B7EC-209D9564B710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F7F78C-3829-4E90-B6CC-792396CA5290}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,10 +2489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -3149,51 +3184,6 @@
     <row r="24" spans="3:13">
       <c r="J24" s="4" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="J25" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25">
-        <f>COUNTIF(K2:K15,"A")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13">
-      <c r="J26" t="s">
-        <v>35</v>
-      </c>
-      <c r="K26">
-        <f>COUNTIF(K3:K16,"B")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13">
-      <c r="J27" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27">
-        <f>COUNTIF(K4:K17,"C")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13">
-      <c r="J28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28">
-        <f>COUNTIF(K5:K18,"D")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13">
-      <c r="J29" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29">
-        <f>COUNTIF(K6:K19,"F")</f>
-        <v>2</v>
       </c>
     </row>
   </sheetData>
